--- a/corona-cases-kuwait.xlsx
+++ b/corona-cases-kuwait.xlsx
@@ -1489,6 +1489,17 @@
           </cell>
           <cell r="J128">
             <v>8861</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>44012</v>
+          </cell>
+          <cell r="C129">
+            <v>671</v>
+          </cell>
+          <cell r="J129">
+            <v>8811</v>
           </cell>
         </row>
       </sheetData>
@@ -1786,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,6 +3596,20 @@
       <c r="C128">
         <f>[1]Sheet2!J128</f>
         <v>8861</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <f>[1]Sheet2!B129</f>
+        <v>44012</v>
+      </c>
+      <c r="B129">
+        <f>[1]Sheet2!C129</f>
+        <v>671</v>
+      </c>
+      <c r="C129">
+        <f>[1]Sheet2!J129</f>
+        <v>8811</v>
       </c>
     </row>
   </sheetData>

--- a/corona-cases-kuwait.xlsx
+++ b/corona-cases-kuwait.xlsx
@@ -1500,6 +1500,39 @@
           </cell>
           <cell r="J129">
             <v>8811</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>44013</v>
+          </cell>
+          <cell r="C130">
+            <v>745</v>
+          </cell>
+          <cell r="J130">
+            <v>8867</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>44014</v>
+          </cell>
+          <cell r="C131">
+            <v>919</v>
+          </cell>
+          <cell r="J131">
+            <v>9110</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>44015</v>
+          </cell>
+          <cell r="C132">
+            <v>813</v>
+          </cell>
+          <cell r="J132">
+            <v>9036</v>
           </cell>
         </row>
       </sheetData>
@@ -1797,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,6 +3643,48 @@
       <c r="C129">
         <f>[1]Sheet2!J129</f>
         <v>8811</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <f>[1]Sheet2!B130</f>
+        <v>44013</v>
+      </c>
+      <c r="B130">
+        <f>[1]Sheet2!C130</f>
+        <v>745</v>
+      </c>
+      <c r="C130">
+        <f>[1]Sheet2!J130</f>
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <f>[1]Sheet2!B131</f>
+        <v>44014</v>
+      </c>
+      <c r="B131">
+        <f>[1]Sheet2!C131</f>
+        <v>919</v>
+      </c>
+      <c r="C131">
+        <f>[1]Sheet2!J131</f>
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <f>[1]Sheet2!B132</f>
+        <v>44015</v>
+      </c>
+      <c r="B132">
+        <f>[1]Sheet2!C132</f>
+        <v>813</v>
+      </c>
+      <c r="C132">
+        <f>[1]Sheet2!J132</f>
+        <v>9036</v>
       </c>
     </row>
   </sheetData>

--- a/corona-cases-kuwait.xlsx
+++ b/corona-cases-kuwait.xlsx
@@ -1533,6 +1533,39 @@
           </cell>
           <cell r="J132">
             <v>9036</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>44016</v>
+          </cell>
+          <cell r="C133">
+            <v>631</v>
+          </cell>
+          <cell r="J133">
+            <v>8995</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>44017</v>
+          </cell>
+          <cell r="C134">
+            <v>638</v>
+          </cell>
+          <cell r="J134">
+            <v>9110</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>44018</v>
+          </cell>
+          <cell r="C135">
+            <v>703</v>
+          </cell>
+          <cell r="J135">
+            <v>9270</v>
           </cell>
         </row>
       </sheetData>
@@ -1830,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,6 +3719,51 @@
         <f>[1]Sheet2!J132</f>
         <v>9036</v>
       </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <f>[1]Sheet2!B133</f>
+        <v>44016</v>
+      </c>
+      <c r="B133">
+        <f>[1]Sheet2!C133</f>
+        <v>631</v>
+      </c>
+      <c r="C133">
+        <f>[1]Sheet2!J133</f>
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <f>[1]Sheet2!B134</f>
+        <v>44017</v>
+      </c>
+      <c r="B134">
+        <f>[1]Sheet2!C134</f>
+        <v>638</v>
+      </c>
+      <c r="C134">
+        <f>[1]Sheet2!J134</f>
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <f>[1]Sheet2!B135</f>
+        <v>44018</v>
+      </c>
+      <c r="B135">
+        <f>[1]Sheet2!C135</f>
+        <v>703</v>
+      </c>
+      <c r="C135">
+        <f>[1]Sheet2!J135</f>
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/corona-cases-kuwait.xlsx
+++ b/corona-cases-kuwait.xlsx
@@ -91,8 +91,8 @@
       <sheetName val="Sheet7"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -1568,9 +1568,262 @@
             <v>9270</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="B136">
+            <v>44019</v>
+          </cell>
+          <cell r="C136">
+            <v>601</v>
+          </cell>
+          <cell r="J136">
+            <v>9353</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>44020</v>
+          </cell>
+          <cell r="C137">
+            <v>762</v>
+          </cell>
+          <cell r="J137">
+            <v>9520</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>44021</v>
+          </cell>
+          <cell r="C138">
+            <v>833</v>
+          </cell>
+          <cell r="J138">
+            <v>9772</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>44022</v>
+          </cell>
+          <cell r="C139">
+            <v>740</v>
+          </cell>
+          <cell r="J139">
+            <v>9984</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>44023</v>
+          </cell>
+          <cell r="C140">
+            <v>478</v>
+          </cell>
+          <cell r="J140">
+            <v>9712</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>44024</v>
+          </cell>
+          <cell r="C141">
+            <v>836</v>
+          </cell>
+          <cell r="J141">
+            <v>9895</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>44025</v>
+          </cell>
+          <cell r="C142">
+            <v>614</v>
+          </cell>
+          <cell r="J142">
+            <v>9760</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>44026</v>
+          </cell>
+          <cell r="C143">
+            <v>666</v>
+          </cell>
+          <cell r="J143">
+            <v>9618</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>44027</v>
+          </cell>
+          <cell r="C144">
+            <v>703</v>
+          </cell>
+          <cell r="J144">
+            <v>9582</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>44028</v>
+          </cell>
+          <cell r="C145">
+            <v>791</v>
+          </cell>
+          <cell r="J145">
+            <v>9722</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>44029</v>
+          </cell>
+          <cell r="C146">
+            <v>553</v>
+          </cell>
+          <cell r="J146">
+            <v>9437</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>44030</v>
+          </cell>
+          <cell r="C147">
+            <v>683</v>
+          </cell>
+          <cell r="J147">
+            <v>9478</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>44031</v>
+          </cell>
+          <cell r="C148">
+            <v>300</v>
+          </cell>
+          <cell r="J148">
+            <v>9110</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>44032</v>
+          </cell>
+          <cell r="C149">
+            <v>559</v>
+          </cell>
+          <cell r="J149">
+            <v>9017</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>44033</v>
+          </cell>
+          <cell r="C150">
+            <v>671</v>
+          </cell>
+          <cell r="J150">
+            <v>9104</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>44034</v>
+          </cell>
+          <cell r="C151">
+            <v>751</v>
+          </cell>
+          <cell r="J151">
+            <v>9249</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>44035</v>
+          </cell>
+          <cell r="C152">
+            <v>687</v>
+          </cell>
+          <cell r="J152">
+            <v>9205</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>44036</v>
+          </cell>
+          <cell r="C153">
+            <v>753</v>
+          </cell>
+          <cell r="J153">
+            <v>9286</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>44037</v>
+          </cell>
+          <cell r="C154">
+            <v>684</v>
+          </cell>
+          <cell r="J154">
+            <v>9274</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>44038</v>
+          </cell>
+          <cell r="C155">
+            <v>464</v>
+          </cell>
+          <cell r="J155">
+            <v>8968</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>44039</v>
+          </cell>
+          <cell r="C156">
+            <v>606</v>
+          </cell>
+          <cell r="J156">
+            <v>8885</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>44040</v>
+          </cell>
+          <cell r="C157">
+            <v>770</v>
+          </cell>
+          <cell r="J157">
+            <v>9027</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>44041</v>
+          </cell>
+          <cell r="C158">
+            <v>754</v>
+          </cell>
+          <cell r="J158">
+            <v>8993</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1863,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,7 +4016,338 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <f>[1]Sheet2!B136</f>
+        <v>44019</v>
+      </c>
+      <c r="B136">
+        <f>[1]Sheet2!C136</f>
+        <v>601</v>
+      </c>
+      <c r="C136">
+        <f>[1]Sheet2!J136</f>
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f>[1]Sheet2!B137</f>
+        <v>44020</v>
+      </c>
+      <c r="B137">
+        <f>[1]Sheet2!C137</f>
+        <v>762</v>
+      </c>
+      <c r="C137">
+        <f>[1]Sheet2!J137</f>
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f>[1]Sheet2!B138</f>
+        <v>44021</v>
+      </c>
+      <c r="B138">
+        <f>[1]Sheet2!C138</f>
+        <v>833</v>
+      </c>
+      <c r="C138">
+        <f>[1]Sheet2!J138</f>
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f>[1]Sheet2!B139</f>
+        <v>44022</v>
+      </c>
+      <c r="B139">
+        <f>[1]Sheet2!C139</f>
+        <v>740</v>
+      </c>
+      <c r="C139">
+        <f>[1]Sheet2!J139</f>
+        <v>9984</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f>[1]Sheet2!B140</f>
+        <v>44023</v>
+      </c>
+      <c r="B140">
+        <f>[1]Sheet2!C140</f>
+        <v>478</v>
+      </c>
+      <c r="C140">
+        <f>[1]Sheet2!J140</f>
+        <v>9712</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f>[1]Sheet2!B141</f>
+        <v>44024</v>
+      </c>
+      <c r="B141">
+        <f>[1]Sheet2!C141</f>
+        <v>836</v>
+      </c>
+      <c r="C141">
+        <f>[1]Sheet2!J141</f>
+        <v>9895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f>[1]Sheet2!B142</f>
+        <v>44025</v>
+      </c>
+      <c r="B142">
+        <f>[1]Sheet2!C142</f>
+        <v>614</v>
+      </c>
+      <c r="C142">
+        <f>[1]Sheet2!J142</f>
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f>[1]Sheet2!B143</f>
+        <v>44026</v>
+      </c>
+      <c r="B143">
+        <f>[1]Sheet2!C143</f>
+        <v>666</v>
+      </c>
+      <c r="C143">
+        <f>[1]Sheet2!J143</f>
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f>[1]Sheet2!B144</f>
+        <v>44027</v>
+      </c>
+      <c r="B144">
+        <f>[1]Sheet2!C144</f>
+        <v>703</v>
+      </c>
+      <c r="C144">
+        <f>[1]Sheet2!J144</f>
+        <v>9582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f>[1]Sheet2!B145</f>
+        <v>44028</v>
+      </c>
+      <c r="B145">
+        <f>[1]Sheet2!C145</f>
+        <v>791</v>
+      </c>
+      <c r="C145">
+        <f>[1]Sheet2!J145</f>
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f>[1]Sheet2!B146</f>
+        <v>44029</v>
+      </c>
+      <c r="B146">
+        <f>[1]Sheet2!C146</f>
+        <v>553</v>
+      </c>
+      <c r="C146">
+        <f>[1]Sheet2!J146</f>
+        <v>9437</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f>[1]Sheet2!B147</f>
+        <v>44030</v>
+      </c>
+      <c r="B147">
+        <f>[1]Sheet2!C147</f>
+        <v>683</v>
+      </c>
+      <c r="C147">
+        <f>[1]Sheet2!J147</f>
+        <v>9478</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f>[1]Sheet2!B148</f>
+        <v>44031</v>
+      </c>
+      <c r="B148">
+        <f>[1]Sheet2!C148</f>
+        <v>300</v>
+      </c>
+      <c r="C148">
+        <f>[1]Sheet2!J148</f>
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f>[1]Sheet2!B149</f>
+        <v>44032</v>
+      </c>
+      <c r="B149">
+        <f>[1]Sheet2!C149</f>
+        <v>559</v>
+      </c>
+      <c r="C149">
+        <f>[1]Sheet2!J149</f>
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f>[1]Sheet2!B150</f>
+        <v>44033</v>
+      </c>
+      <c r="B150">
+        <f>[1]Sheet2!C150</f>
+        <v>671</v>
+      </c>
+      <c r="C150">
+        <f>[1]Sheet2!J150</f>
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f>[1]Sheet2!B151</f>
+        <v>44034</v>
+      </c>
+      <c r="B151">
+        <f>[1]Sheet2!C151</f>
+        <v>751</v>
+      </c>
+      <c r="C151">
+        <f>[1]Sheet2!J151</f>
+        <v>9249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f>[1]Sheet2!B152</f>
+        <v>44035</v>
+      </c>
+      <c r="B152">
+        <f>[1]Sheet2!C152</f>
+        <v>687</v>
+      </c>
+      <c r="C152">
+        <f>[1]Sheet2!J152</f>
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f>[1]Sheet2!B153</f>
+        <v>44036</v>
+      </c>
+      <c r="B153">
+        <f>[1]Sheet2!C153</f>
+        <v>753</v>
+      </c>
+      <c r="C153">
+        <f>[1]Sheet2!J153</f>
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f>[1]Sheet2!B154</f>
+        <v>44037</v>
+      </c>
+      <c r="B154">
+        <f>[1]Sheet2!C154</f>
+        <v>684</v>
+      </c>
+      <c r="C154">
+        <f>[1]Sheet2!J154</f>
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f>[1]Sheet2!B155</f>
+        <v>44038</v>
+      </c>
+      <c r="B155">
+        <f>[1]Sheet2!C155</f>
+        <v>464</v>
+      </c>
+      <c r="C155">
+        <f>[1]Sheet2!J155</f>
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f>[1]Sheet2!B156</f>
+        <v>44039</v>
+      </c>
+      <c r="B156">
+        <f>[1]Sheet2!C156</f>
+        <v>606</v>
+      </c>
+      <c r="C156">
+        <f>[1]Sheet2!J156</f>
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f>[1]Sheet2!B157</f>
+        <v>44040</v>
+      </c>
+      <c r="B157">
+        <f>[1]Sheet2!C157</f>
+        <v>770</v>
+      </c>
+      <c r="C157">
+        <f>[1]Sheet2!J157</f>
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f>[1]Sheet2!B158</f>
+        <v>44041</v>
+      </c>
+      <c r="B158">
+        <f>[1]Sheet2!C158</f>
+        <v>754</v>
+      </c>
+      <c r="C158">
+        <f>[1]Sheet2!J158</f>
+        <v>8993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
